--- a/model.xlsx
+++ b/model.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Ticker</t>
   </si>
@@ -44,16 +44,22 @@
     <t xml:space="preserve">Book Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Price per share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of shares</t>
+  </si>
+  <si>
     <t xml:space="preserve">Market Cap</t>
   </si>
   <si>
-    <t xml:space="preserve">ok api</t>
-  </si>
-  <si>
     <t xml:space="preserve">Safety Margin</t>
   </si>
   <si>
     <t xml:space="preserve">Market Cap / Book Value Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Value / N. of shares</t>
   </si>
   <si>
     <t xml:space="preserve">P/E Rating 3Y</t>
@@ -190,7 +196,7 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -198,6 +204,9 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="5" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -744,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75">
@@ -752,16 +761,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.75">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="6" t="e">
         <f>B3/B4</f>
-        <v>1.7391304347826086</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -798,23 +807,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="15.75">
-      <c r="A13" s="5" t="s">
+    <row r="14" ht="15.75">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
-        <f>B10-B12</f>
+      <c r="B14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -822,60 +829,75 @@
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="e">
-        <f>B12/B10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
+      <c r="B15" s="3">
+        <f>B10-B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1"/>
     <row r="17" ht="15.75">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="e">
+      <c r="B17" s="3" t="e">
+        <f>B14/B10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" ht="15.75">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" ht="15" customHeight="1"/>
+    <row r="20" ht="15.75">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="e">
         <f>'Prices and Dividends'!B5/Earnings!B14</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" ht="15.75">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4" t="e">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" ht="15.75">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="e">
         <f>Earnings!B14/Earnings!B13-1</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="e">
-        <f>B17*B15</f>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="e">
+        <f>B20*B17</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="e">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="e">
         <f>'Prices and Dividends'!B6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
@@ -1838,6 +1860,9 @@
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -1847,7 +1872,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="lessThan" id="{007200B4-00B0-4898-9D80-00FF003C0047}">
+          <x14:cfRule type="cellIs" priority="16" operator="lessThan" id="{00C100E4-0030-466D-979A-00A200590019}">
             <xm:f>"1,5"</xm:f>
             <x14:dxf>
               <font>
@@ -1864,7 +1889,7 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="lessThanOrEqual" id="{00E3006F-0035-49C7-BE7C-00EE003A00CA}">
+          <x14:cfRule type="cellIs" priority="15" operator="lessThanOrEqual" id="{005A0010-00BA-4F6F-AD97-00070008006E}">
             <xm:f>"1,5"</xm:f>
             <x14:dxf>
               <font>
@@ -1881,7 +1906,7 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="between" id="{00FF004D-003A-499C-B4C2-0060002D000D}">
+          <x14:cfRule type="cellIs" priority="14" operator="between" id="{008400A3-00D4-4523-A3D5-002D001200C7}">
             <xm:f>"1,5"</xm:f>
             <xm:f>2</xm:f>
             <x14:dxf>
@@ -1899,7 +1924,7 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="greaterThan" id="{00940035-0048-4C16-B67F-0072008C0013}">
+          <x14:cfRule type="cellIs" priority="13" operator="greaterThan" id="{007E00B2-004A-4E1A-86FA-000800FC0021}">
             <xm:f>2</xm:f>
             <x14:dxf>
               <font>
@@ -1916,7 +1941,7 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="between" id="{009400FF-00EB-4F84-9BBF-00F3009300F2}">
+          <x14:cfRule type="cellIs" priority="12" operator="between" id="{001C0076-00E1-4EE7-9EFC-006F00FE003E}">
             <xm:f>"1,5"</xm:f>
             <xm:f>2</xm:f>
             <x14:dxf>
@@ -1934,7 +1959,7 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" operator="between" id="{009300FB-0035-450C-90F8-00E800BE0057}">
+          <x14:cfRule type="cellIs" priority="11" operator="between" id="{004300CE-00CC-40A3-B7AB-009E00840027}">
             <xm:f>"1,5"</xm:f>
             <xm:f>2</xm:f>
             <x14:dxf>
@@ -1952,8 +1977,145 @@
           <xm:sqref>B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="lessThanOrEqual" id="{004C006B-003A-4927-9982-0009005100FF}">
+          <x14:cfRule type="cellIs" priority="10" operator="lessThanOrEqual" id="{007000BB-0038-476C-B928-00B500AE00A5}">
             <xm:f>15</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="lessThanOrEqual" id="{003100E2-00C1-48E2-9068-003700D100C7}">
+            <xm:f>"22,5"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="lessThanOrEqual" id="{00AA000D-00FA-42A8-A7B2-008C00F4005F}">
+            <xm:f>"22,5"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="lessThanOrEqual" id="{001200AA-00EA-40E9-AF24-007F00530084}">
+            <xm:f>"22,5"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="lessThanOrEqual" id="{0033004B-0089-44D0-B532-00C000DF0012}">
+            <xm:f>"22,5"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="between" id="{00EE0024-0047-4B0F-8F1E-006300BC0025}">
+            <xm:f>7</xm:f>
+            <xm:f>9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{00B40090-0086-4259-9181-005F00C100A2}">
+            <xm:f>9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{000E008C-001B-41E8-98CA-001000FC00AE}">
+            <xm:f>"1,5"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThanOrEqual" id="{0016003A-00D0-4FF8-A1BA-00B6002C0035}">
+            <xm:f>"0,8"</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF006100"/>
@@ -1969,144 +2131,7 @@
           <xm:sqref>B17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="lessThanOrEqual" id="{001D0003-0092-4C22-A219-004200D4003E}">
-            <xm:f>"22,5"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="lessThanOrEqual" id="{00860070-00DB-4A9F-A359-0034008F007C}">
-            <xm:f>"22,5"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="lessThanOrEqual" id="{00AE00CF-0034-4612-944B-00B1001200B3}">
-            <xm:f>"22,5"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="lessThanOrEqual" id="{00DE0031-00C2-4D45-ACD2-004300B000F2}">
-            <xm:f>"22,5"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="between" id="{0003001E-002F-44D4-B83B-00A600FF00DD}">
-            <xm:f>7</xm:f>
-            <xm:f>9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="greaterThan" id="{0030000E-0026-4FB1-B7B7-0049005A002B}">
-            <xm:f>9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{001A00F1-00D8-47A1-94D8-00D100600026}">
-            <xm:f>"1,5"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThanOrEqual" id="{009B00A9-007A-45BD-A417-00950072002F}">
-            <xm:f>"0,8"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="between" id="{0030008B-00C4-4AF2-B750-002300380038}">
+          <x14:cfRule type="cellIs" priority="1" operator="between" id="{00FC0060-00E5-484A-B1E5-00F400450064}">
             <xm:f>"0,8"</xm:f>
             <xm:f>"1,5"</xm:f>
             <x14:dxf>
@@ -2121,7 +2146,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B15</xm:sqref>
+          <xm:sqref>B17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2147,15 +2172,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25">
-      <c r="A1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>18</v>
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="15.75">
-      <c r="A2" s="10">
+      <c r="A2" s="13">
         <v>2015</v>
       </c>
       <c r="B2" s="4">
@@ -2163,7 +2188,7 @@
       </c>
     </row>
     <row r="3" ht="15.75">
-      <c r="A3" s="10">
+      <c r="A3" s="13">
         <v>2016</v>
       </c>
       <c r="B3" s="4">
@@ -2171,7 +2196,7 @@
       </c>
     </row>
     <row r="4" ht="15.75">
-      <c r="A4" s="10">
+      <c r="A4" s="13">
         <v>2017</v>
       </c>
       <c r="B4" s="4">
@@ -2179,7 +2204,7 @@
       </c>
     </row>
     <row r="5" ht="15.75">
-      <c r="A5" s="10">
+      <c r="A5" s="13">
         <v>2018</v>
       </c>
       <c r="B5" s="4">
@@ -2187,7 +2212,7 @@
       </c>
     </row>
     <row r="6" ht="15.75">
-      <c r="A6" s="10">
+      <c r="A6" s="13">
         <v>2019</v>
       </c>
       <c r="B6" s="4">
@@ -2195,7 +2220,7 @@
       </c>
     </row>
     <row r="7" ht="15.75">
-      <c r="A7" s="10">
+      <c r="A7" s="13">
         <v>2020</v>
       </c>
       <c r="B7" s="4">
@@ -2203,7 +2228,7 @@
       </c>
     </row>
     <row r="8" ht="15.75">
-      <c r="A8" s="10">
+      <c r="A8" s="13">
         <v>2021</v>
       </c>
       <c r="B8" s="4">
@@ -2211,7 +2236,7 @@
       </c>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="10">
+      <c r="A9" s="13">
         <v>2022</v>
       </c>
       <c r="B9" s="4">
@@ -2219,7 +2244,7 @@
       </c>
     </row>
     <row r="10" ht="15.75">
-      <c r="A10" s="10">
+      <c r="A10" s="13">
         <v>2023</v>
       </c>
       <c r="B10" s="4">
@@ -2227,7 +2252,7 @@
       </c>
     </row>
     <row r="11" ht="15.75">
-      <c r="A11" s="10">
+      <c r="A11" s="13">
         <v>2024</v>
       </c>
       <c r="B11" s="4">
@@ -2235,7 +2260,7 @@
       </c>
     </row>
     <row r="12" ht="15.75">
-      <c r="A12" s="10">
+      <c r="A12" s="13">
         <v>2025</v>
       </c>
       <c r="B12" s="4">
@@ -2244,7 +2269,7 @@
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="e">
         <f>AVARAGE(B2:B4)</f>
@@ -2253,7 +2278,7 @@
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="e">
         <f>AVARAGE(B10:B12)</f>
@@ -2287,14 +2312,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>22</v>
+      <c r="A1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -2332,7 +2357,7 @@
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <f>AVERAGE(B2:B4)</f>
@@ -2345,7 +2370,7 @@
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="e">
         <f>C5/B5</f>
